--- a/r_course/data/writeThisXLSX.xlsx
+++ b/r_course/data/writeThisXLSX.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -11,58 +11,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Gene_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_1.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_2.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_3.hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_4.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_5.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_1.low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene_h</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -381,221 +331,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.57023720364456</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.23046698308814</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.35182734109581</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.93087740507604</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.0982466615574</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.41872599241738</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.56173302139372</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.63228532632679</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.58752332121842</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.18528703973968</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.38097605082883</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.93699011597982</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.79727358461183</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.87446166873403</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.01691554677942</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.17577190504476</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.98826298986763</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.78091724072316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.39824234540912</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.41520211046494</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.89356108533325</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.43234190142067</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.60915098691968</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.0198646654463</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10.1287867100999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.2240711640563</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.94581254480525</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.93617443910193</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.89292401779979</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9192078505738</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8.4743967992122</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.61262799641256</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.17082985953462</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.29935092702527</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.57586964139094</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.54277726226409</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10.0100200884644</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.3123540206195</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.6032898362026</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.93070416736469</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.748795278315</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.79882378023307</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9.39999241674877</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10.3328437472096</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.37821714239085</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.0651996274656</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.7886185725894</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10.2453257876411</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>

--- a/r_course/data/writeThisXLSX.xlsx
+++ b/r_course/data/writeThisXLSX.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -11,8 +11,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Gene_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_1.hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_2.hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_3.hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_4.low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_5.low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_1.low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene_h</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -331,13 +381,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.57023720364456</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.23046698308814</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.35182734109581</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.93087740507604</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.0982466615574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.41872599241738</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.56173302139372</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.63228532632679</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.58752332121842</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.18528703973968</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.38097605082883</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.93699011597982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.79727358461183</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.87446166873403</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.01691554677942</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.17577190504476</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.98826298986763</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.78091724072316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.39824234540912</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.41520211046494</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.89356108533325</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.43234190142067</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.60915098691968</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.0198646654463</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.1287867100999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.2240711640563</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.94581254480525</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.93617443910193</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.89292401779979</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9192078505738</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.4743967992122</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.61262799641256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.17082985953462</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.29935092702527</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.57586964139094</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.54277726226409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.0100200884644</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.3123540206195</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.6032898362026</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.93070416736469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.748795278315</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.79882378023307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.39999241674877</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.3328437472096</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.37821714239085</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.0651996274656</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.7886185725894</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.2453257876411</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
